--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Gnai2-Adra2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H2">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J2">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.533870378450031</v>
+        <v>1.041888666666667</v>
       </c>
       <c r="N2">
-        <v>0.533870378450031</v>
+        <v>3.125666</v>
       </c>
       <c r="O2">
-        <v>0.01546644338510555</v>
+        <v>0.02821583673558112</v>
       </c>
       <c r="P2">
-        <v>0.01546644338510555</v>
+        <v>0.02821583673558112</v>
       </c>
       <c r="Q2">
-        <v>41.35532408453469</v>
+        <v>111.3555912830171</v>
       </c>
       <c r="R2">
-        <v>41.35532408453469</v>
+        <v>1002.200321547154</v>
       </c>
       <c r="S2">
-        <v>0.001835360935767071</v>
+        <v>0.004257059578972405</v>
       </c>
       <c r="T2">
-        <v>0.001835360935767071</v>
+        <v>0.004257059578972405</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H3">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J3">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.82519197604245</v>
+        <v>0.06924166666666666</v>
       </c>
       <c r="N3">
-        <v>2.82519197604245</v>
+        <v>0.207725</v>
       </c>
       <c r="O3">
-        <v>0.08184696794074864</v>
+        <v>0.001875163464649962</v>
       </c>
       <c r="P3">
-        <v>0.08184696794074864</v>
+        <v>0.001875163464649962</v>
       </c>
       <c r="Q3">
-        <v>218.8484967258735</v>
+        <v>7.400451679502776</v>
       </c>
       <c r="R3">
-        <v>218.8484967258735</v>
+        <v>66.60406511552499</v>
       </c>
       <c r="S3">
-        <v>0.00971255795072402</v>
+        <v>0.0002829149694951549</v>
       </c>
       <c r="T3">
-        <v>0.00971255795072402</v>
+        <v>0.0002829149694951549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H4">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J4">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.27818275064968</v>
+        <v>3.238270333333334</v>
       </c>
       <c r="N4">
-        <v>4.27818275064968</v>
+        <v>9.714811000000001</v>
       </c>
       <c r="O4">
-        <v>0.1239407054127308</v>
+        <v>0.08769699676581809</v>
       </c>
       <c r="P4">
-        <v>0.1239407054127308</v>
+        <v>0.08769699676581807</v>
       </c>
       <c r="Q4">
-        <v>331.4018557456702</v>
+        <v>346.1017661860732</v>
       </c>
       <c r="R4">
-        <v>331.4018557456702</v>
+        <v>3114.915895674659</v>
       </c>
       <c r="S4">
-        <v>0.01470770773874255</v>
+        <v>0.01323126950398939</v>
       </c>
       <c r="T4">
-        <v>0.01470770773874255</v>
+        <v>0.01323126950398939</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H5">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I5">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J5">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.7762607362374</v>
+        <v>4.564199666666667</v>
       </c>
       <c r="N5">
-        <v>25.7762607362374</v>
+        <v>13.692599</v>
       </c>
       <c r="O5">
-        <v>0.7467488241512339</v>
+        <v>0.1236050614076428</v>
       </c>
       <c r="P5">
-        <v>0.7467488241512339</v>
+        <v>0.1236050614076428</v>
       </c>
       <c r="Q5">
-        <v>1996.712422085313</v>
+        <v>487.8152233304035</v>
       </c>
       <c r="R5">
-        <v>1996.712422085313</v>
+        <v>4390.337009973631</v>
       </c>
       <c r="S5">
-        <v>0.08861465991573957</v>
+        <v>0.01864889266286865</v>
       </c>
       <c r="T5">
-        <v>0.08861465991573957</v>
+        <v>0.01864889266286864</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>77.46323031556889</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H6">
-        <v>77.46323031556889</v>
+        <v>320.635769</v>
       </c>
       <c r="I6">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J6">
-        <v>0.1186672908611009</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.10447383610449</v>
+        <v>26.791856</v>
       </c>
       <c r="N6">
-        <v>1.10447383610449</v>
+        <v>80.375568</v>
       </c>
       <c r="O6">
-        <v>0.03199705911018118</v>
+        <v>0.7255618176150613</v>
       </c>
       <c r="P6">
-        <v>0.03199705911018118</v>
+        <v>0.7255618176150612</v>
       </c>
       <c r="Q6">
-        <v>85.55611114368199</v>
+        <v>2863.475783832421</v>
       </c>
       <c r="R6">
-        <v>85.55611114368199</v>
+        <v>25771.28205449179</v>
       </c>
       <c r="S6">
-        <v>0.003797004320127709</v>
+        <v>0.1094690160976086</v>
       </c>
       <c r="T6">
-        <v>0.003797004320127709</v>
+        <v>0.1094690160976086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>76.9701855606306</v>
+        <v>106.8785896666667</v>
       </c>
       <c r="H7">
-        <v>76.9701855606306</v>
+        <v>320.635769</v>
       </c>
       <c r="I7">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="J7">
-        <v>0.1179119868916763</v>
+        <v>0.1508748302900445</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.533870378450031</v>
+        <v>1.220213333333333</v>
       </c>
       <c r="N7">
-        <v>0.533870378450031</v>
+        <v>3.66064</v>
       </c>
       <c r="O7">
-        <v>0.01546644338510555</v>
+        <v>0.03304512401124678</v>
       </c>
       <c r="P7">
-        <v>0.01546644338510555</v>
+        <v>0.03304512401124677</v>
       </c>
       <c r="Q7">
-        <v>41.09210209462297</v>
+        <v>130.4146801591289</v>
       </c>
       <c r="R7">
-        <v>41.09210209462297</v>
+        <v>1173.73212143216</v>
       </c>
       <c r="S7">
-        <v>0.001823679069685419</v>
+        <v>0.004985677477110333</v>
       </c>
       <c r="T7">
-        <v>0.001823679069685419</v>
+        <v>0.004985677477110332</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H8">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J8">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.82519197604245</v>
+        <v>1.041888666666667</v>
       </c>
       <c r="N8">
-        <v>2.82519197604245</v>
+        <v>3.125666</v>
       </c>
       <c r="O8">
-        <v>0.08184696794074864</v>
+        <v>0.02821583673558112</v>
       </c>
       <c r="P8">
-        <v>0.08184696794074864</v>
+        <v>0.02821583673558112</v>
       </c>
       <c r="Q8">
-        <v>217.455550640392</v>
+        <v>80.46810716723934</v>
       </c>
       <c r="R8">
-        <v>217.455550640392</v>
+        <v>724.2129645051541</v>
       </c>
       <c r="S8">
-        <v>0.009650738610953002</v>
+        <v>0.003076249000801793</v>
       </c>
       <c r="T8">
-        <v>0.009650738610953002</v>
+        <v>0.003076249000801794</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H9">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J9">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.27818275064968</v>
+        <v>0.06924166666666666</v>
       </c>
       <c r="N9">
-        <v>4.27818275064968</v>
+        <v>0.207725</v>
       </c>
       <c r="O9">
-        <v>0.1239407054127308</v>
+        <v>0.001875163464649962</v>
       </c>
       <c r="P9">
-        <v>0.1239407054127308</v>
+        <v>0.001875163464649962</v>
       </c>
       <c r="Q9">
-        <v>329.2925201797949</v>
+        <v>5.347736310058333</v>
       </c>
       <c r="R9">
-        <v>329.2925201797949</v>
+        <v>48.12962679052499</v>
       </c>
       <c r="S9">
-        <v>0.01461409483197103</v>
+        <v>0.0002044408531466742</v>
       </c>
       <c r="T9">
-        <v>0.01461409483197103</v>
+        <v>0.0002044408531466742</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H10">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I10">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J10">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.7762607362374</v>
+        <v>3.238270333333334</v>
       </c>
       <c r="N10">
-        <v>25.7762607362374</v>
+        <v>9.714811000000001</v>
       </c>
       <c r="O10">
-        <v>0.7467488241512339</v>
+        <v>0.08769699676581809</v>
       </c>
       <c r="P10">
-        <v>0.7467488241512339</v>
+        <v>0.08769699676581807</v>
       </c>
       <c r="Q10">
-        <v>1984.003571927389</v>
+        <v>250.1010833075177</v>
       </c>
       <c r="R10">
-        <v>1984.003571927389</v>
+        <v>2250.909749767659</v>
       </c>
       <c r="S10">
-        <v>0.08805063756469497</v>
+        <v>0.009561219155126708</v>
       </c>
       <c r="T10">
-        <v>0.08805063756469497</v>
+        <v>0.009561219155126706</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>76.9701855606306</v>
+        <v>77.232923</v>
       </c>
       <c r="H11">
-        <v>76.9701855606306</v>
+        <v>231.698769</v>
       </c>
       <c r="I11">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J11">
-        <v>0.1179119868916763</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.10447383610449</v>
+        <v>4.564199666666667</v>
       </c>
       <c r="N11">
-        <v>1.10447383610449</v>
+        <v>13.692599</v>
       </c>
       <c r="O11">
-        <v>0.03199705911018118</v>
+        <v>0.1236050614076428</v>
       </c>
       <c r="P11">
-        <v>0.03199705911018118</v>
+        <v>0.1236050614076428</v>
       </c>
       <c r="Q11">
-        <v>85.01155611182409</v>
+        <v>352.5064814122924</v>
       </c>
       <c r="R11">
-        <v>85.01155611182409</v>
+        <v>3172.558332710631</v>
       </c>
       <c r="S11">
-        <v>0.003772836814371875</v>
+        <v>0.01347611804720326</v>
       </c>
       <c r="T11">
-        <v>0.003772836814371875</v>
+        <v>0.01347611804720326</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H12">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I12">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J12">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.533870378450031</v>
+        <v>26.791856</v>
       </c>
       <c r="N12">
-        <v>0.533870378450031</v>
+        <v>80.375568</v>
       </c>
       <c r="O12">
-        <v>0.01546644338510555</v>
+        <v>0.7255618176150613</v>
       </c>
       <c r="P12">
-        <v>0.01546644338510555</v>
+        <v>0.7255618176150612</v>
       </c>
       <c r="Q12">
-        <v>64.97815930128448</v>
+        <v>2069.213351475088</v>
       </c>
       <c r="R12">
-        <v>64.97815930128448</v>
+        <v>18622.92016327579</v>
       </c>
       <c r="S12">
-        <v>0.002883749019010235</v>
+        <v>0.07910482461941762</v>
       </c>
       <c r="T12">
-        <v>0.002883749019010235</v>
+        <v>0.07910482461941762</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>121.711490137238</v>
+        <v>77.232923</v>
       </c>
       <c r="H13">
-        <v>121.711490137238</v>
+        <v>231.698769</v>
       </c>
       <c r="I13">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="J13">
-        <v>0.186451981700417</v>
+        <v>0.1090256166999485</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.82519197604245</v>
+        <v>1.220213333333333</v>
       </c>
       <c r="N13">
-        <v>2.82519197604245</v>
+        <v>3.66064</v>
       </c>
       <c r="O13">
-        <v>0.08184696794074864</v>
+        <v>0.03304512401124678</v>
       </c>
       <c r="P13">
-        <v>0.08184696794074864</v>
+        <v>0.03304512401124677</v>
       </c>
       <c r="Q13">
-        <v>343.8583253278946</v>
+        <v>94.24064241690667</v>
       </c>
       <c r="R13">
-        <v>343.8583253278946</v>
+        <v>848.16578175216</v>
       </c>
       <c r="S13">
-        <v>0.01526052936872308</v>
+        <v>0.003602765024252456</v>
       </c>
       <c r="T13">
-        <v>0.01526052936872308</v>
+        <v>0.003602765024252455</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H14">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I14">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J14">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.27818275064968</v>
+        <v>1.041888666666667</v>
       </c>
       <c r="N14">
-        <v>4.27818275064968</v>
+        <v>3.125666</v>
       </c>
       <c r="O14">
-        <v>0.1239407054127308</v>
+        <v>0.02821583673558112</v>
       </c>
       <c r="P14">
-        <v>0.1239407054127308</v>
+        <v>0.02821583673558112</v>
       </c>
       <c r="Q14">
-        <v>520.7039976610004</v>
+        <v>142.401526521814</v>
       </c>
       <c r="R14">
-        <v>520.7039976610004</v>
+        <v>1281.613738696326</v>
       </c>
       <c r="S14">
-        <v>0.02310899013755126</v>
+        <v>0.005443927651546987</v>
       </c>
       <c r="T14">
-        <v>0.02310899013755126</v>
+        <v>0.005443927651546987</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H15">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I15">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J15">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>25.7762607362374</v>
+        <v>0.06924166666666666</v>
       </c>
       <c r="N15">
-        <v>25.7762607362374</v>
+        <v>0.207725</v>
       </c>
       <c r="O15">
-        <v>0.7467488241512339</v>
+        <v>0.001875163464649962</v>
       </c>
       <c r="P15">
-        <v>0.7467488241512339</v>
+        <v>0.001875163464649962</v>
       </c>
       <c r="Q15">
-        <v>3137.267104373434</v>
+        <v>9.463697367775</v>
       </c>
       <c r="R15">
-        <v>3137.267104373434</v>
+        <v>85.17327630997501</v>
       </c>
       <c r="S15">
-        <v>0.1392327980954537</v>
+        <v>0.0003617916538163699</v>
       </c>
       <c r="T15">
-        <v>0.1392327980954537</v>
+        <v>0.0003617916538163699</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>121.711490137238</v>
+        <v>136.676337</v>
       </c>
       <c r="H16">
-        <v>121.711490137238</v>
+        <v>410.029011</v>
       </c>
       <c r="I16">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J16">
-        <v>0.186451981700417</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.10447383610449</v>
+        <v>3.238270333333334</v>
       </c>
       <c r="N16">
-        <v>1.10447383610449</v>
+        <v>9.714811000000001</v>
       </c>
       <c r="O16">
-        <v>0.03199705911018118</v>
+        <v>0.08769699676581809</v>
       </c>
       <c r="P16">
-        <v>0.03199705911018118</v>
+        <v>0.08769699676581807</v>
       </c>
       <c r="Q16">
-        <v>134.427156409869</v>
+        <v>442.5949273757691</v>
       </c>
       <c r="R16">
-        <v>134.427156409869</v>
+        <v>3983.354346381921</v>
       </c>
       <c r="S16">
-        <v>0.005965915079678663</v>
+        <v>0.01692014701265357</v>
       </c>
       <c r="T16">
-        <v>0.005965915079678663</v>
+        <v>0.01692014701265357</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H17">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I17">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J17">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.533870378450031</v>
+        <v>4.564199666666667</v>
       </c>
       <c r="N17">
-        <v>0.533870378450031</v>
+        <v>13.692599</v>
       </c>
       <c r="O17">
-        <v>0.01546644338510555</v>
+        <v>0.1236050614076428</v>
       </c>
       <c r="P17">
-        <v>0.01546644338510555</v>
+        <v>0.1236050614076428</v>
       </c>
       <c r="Q17">
-        <v>74.93765893497704</v>
+        <v>623.8180917766211</v>
       </c>
       <c r="R17">
-        <v>74.93765893497704</v>
+        <v>5614.36282598959</v>
       </c>
       <c r="S17">
-        <v>0.003325754419091274</v>
+        <v>0.02384820333255205</v>
       </c>
       <c r="T17">
-        <v>0.003325754419091274</v>
+        <v>0.02384820333255204</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H18">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I18">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J18">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.82519197604245</v>
+        <v>26.791856</v>
       </c>
       <c r="N18">
-        <v>2.82519197604245</v>
+        <v>80.375568</v>
       </c>
       <c r="O18">
-        <v>0.08184696794074864</v>
+        <v>0.7255618176150613</v>
       </c>
       <c r="P18">
-        <v>0.08184696794074864</v>
+        <v>0.7255618176150612</v>
       </c>
       <c r="Q18">
-        <v>396.5630633809715</v>
+        <v>3661.812739511473</v>
       </c>
       <c r="R18">
-        <v>396.5630633809715</v>
+        <v>32956.31465560325</v>
       </c>
       <c r="S18">
-        <v>0.0175995804943949</v>
+        <v>0.1399889742358893</v>
       </c>
       <c r="T18">
-        <v>0.0175995804943949</v>
+        <v>0.1399889742358893</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>140.36676684056</v>
+        <v>136.676337</v>
       </c>
       <c r="H19">
-        <v>140.36676684056</v>
+        <v>410.029011</v>
       </c>
       <c r="I19">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="J19">
-        <v>0.2150303296163119</v>
+        <v>0.1929387280825172</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.27818275064968</v>
+        <v>1.220213333333333</v>
       </c>
       <c r="N19">
-        <v>4.27818275064968</v>
+        <v>3.66064</v>
       </c>
       <c r="O19">
-        <v>0.1239407054127308</v>
+        <v>0.03304512401124678</v>
       </c>
       <c r="P19">
-        <v>0.1239407054127308</v>
+        <v>0.03304512401124677</v>
       </c>
       <c r="Q19">
-        <v>600.5146806617493</v>
+        <v>166.77428875856</v>
       </c>
       <c r="R19">
-        <v>600.5146806617493</v>
+        <v>1500.96859882704</v>
       </c>
       <c r="S19">
-        <v>0.02665101073777773</v>
+        <v>0.006375684196059004</v>
       </c>
       <c r="T19">
-        <v>0.02665101073777773</v>
+        <v>0.006375684196059002</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H20">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I20">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J20">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.7762607362374</v>
+        <v>1.041888666666667</v>
       </c>
       <c r="N20">
-        <v>25.7762607362374</v>
+        <v>3.125666</v>
       </c>
       <c r="O20">
-        <v>0.7467488241512339</v>
+        <v>0.02821583673558112</v>
       </c>
       <c r="P20">
-        <v>0.7467488241512339</v>
+        <v>0.02821583673558112</v>
       </c>
       <c r="Q20">
-        <v>3618.130380784916</v>
+        <v>149.4648874473218</v>
       </c>
       <c r="R20">
-        <v>3618.130380784916</v>
+        <v>1345.183987025896</v>
       </c>
       <c r="S20">
-        <v>0.1605736457978332</v>
+        <v>0.005713955837300584</v>
       </c>
       <c r="T20">
-        <v>0.1605736457978332</v>
+        <v>0.005713955837300584</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>140.36676684056</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H21">
-        <v>140.36676684056</v>
+        <v>430.367156</v>
       </c>
       <c r="I21">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J21">
-        <v>0.2150303296163119</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>1.10447383610449</v>
+        <v>0.06924166666666666</v>
       </c>
       <c r="N21">
-        <v>1.10447383610449</v>
+        <v>0.207725</v>
       </c>
       <c r="O21">
-        <v>0.03199705911018118</v>
+        <v>0.001875163464649962</v>
       </c>
       <c r="P21">
-        <v>0.03199705911018118</v>
+        <v>0.001875163464649962</v>
       </c>
       <c r="Q21">
-        <v>155.0314214339778</v>
+        <v>9.933113053344442</v>
       </c>
       <c r="R21">
-        <v>155.0314214339778</v>
+        <v>89.39801748009999</v>
       </c>
       <c r="S21">
-        <v>0.006880338167214877</v>
+        <v>0.0003797371428371629</v>
       </c>
       <c r="T21">
-        <v>0.006880338167214877</v>
+        <v>0.0003797371428371628</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H22">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I22">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J22">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.533870378450031</v>
+        <v>3.238270333333334</v>
       </c>
       <c r="N22">
-        <v>0.533870378450031</v>
+        <v>9.714811000000001</v>
       </c>
       <c r="O22">
-        <v>0.01546644338510555</v>
+        <v>0.08769699676581809</v>
       </c>
       <c r="P22">
-        <v>0.01546644338510555</v>
+        <v>0.08769699676581807</v>
       </c>
       <c r="Q22">
-        <v>103.656002314723</v>
+        <v>464.5483979052796</v>
       </c>
       <c r="R22">
-        <v>103.656002314723</v>
+        <v>4180.935581147516</v>
       </c>
       <c r="S22">
-        <v>0.004600282590394895</v>
+        <v>0.01775941544033237</v>
       </c>
       <c r="T22">
-        <v>0.004600282590394895</v>
+        <v>0.01775941544033237</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H23">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I23">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J23">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.82519197604245</v>
+        <v>4.564199666666667</v>
       </c>
       <c r="N23">
-        <v>2.82519197604245</v>
+        <v>13.692599</v>
       </c>
       <c r="O23">
-        <v>0.08184696794074864</v>
+        <v>0.1236050614076428</v>
       </c>
       <c r="P23">
-        <v>0.08184696794074864</v>
+        <v>0.1236050614076428</v>
       </c>
       <c r="Q23">
-        <v>548.5378433214626</v>
+        <v>654.7605433198271</v>
       </c>
       <c r="R23">
-        <v>548.5378433214626</v>
+        <v>5892.844889878445</v>
       </c>
       <c r="S23">
-        <v>0.02434426405084374</v>
+        <v>0.02503111528354793</v>
       </c>
       <c r="T23">
-        <v>0.02434426405084374</v>
+        <v>0.02503111528354793</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H24">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I24">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J24">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.27818275064968</v>
+        <v>26.791856</v>
       </c>
       <c r="N24">
-        <v>4.27818275064968</v>
+        <v>80.375568</v>
       </c>
       <c r="O24">
-        <v>0.1239407054127308</v>
+        <v>0.7255618176150613</v>
       </c>
       <c r="P24">
-        <v>0.1239407054127308</v>
+        <v>0.7255618176150612</v>
       </c>
       <c r="Q24">
-        <v>830.6497962888158</v>
+        <v>3843.444956893845</v>
       </c>
       <c r="R24">
-        <v>830.6497962888158</v>
+        <v>34591.00461204461</v>
       </c>
       <c r="S24">
-        <v>0.03686447201562345</v>
+        <v>0.1469326684136917</v>
       </c>
       <c r="T24">
-        <v>0.03686447201562345</v>
+        <v>0.1469326684136917</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>194.159493575321</v>
+        <v>143.4557186666667</v>
       </c>
       <c r="H25">
-        <v>194.159493575321</v>
+        <v>430.367156</v>
       </c>
       <c r="I25">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="J25">
-        <v>0.2974363579169756</v>
+        <v>0.2025088212285795</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.7762607362374</v>
+        <v>1.220213333333333</v>
       </c>
       <c r="N25">
-        <v>25.7762607362374</v>
+        <v>3.66064</v>
       </c>
       <c r="O25">
-        <v>0.7467488241512339</v>
+        <v>0.03304512401124678</v>
       </c>
       <c r="P25">
-        <v>0.7467488241512339</v>
+        <v>0.03304512401124677</v>
       </c>
       <c r="Q25">
-        <v>5004.705730813284</v>
+        <v>175.0465806599822</v>
       </c>
       <c r="R25">
-        <v>5004.705730813284</v>
+        <v>1575.41922593984</v>
       </c>
       <c r="S25">
-        <v>0.2221102505343271</v>
+        <v>0.006691929110869814</v>
       </c>
       <c r="T25">
-        <v>0.2221102505343271</v>
+        <v>0.006691929110869813</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>194.159493575321</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H26">
-        <v>194.159493575321</v>
+        <v>595.794632</v>
       </c>
       <c r="I26">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J26">
-        <v>0.2974363579169756</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.10447383610449</v>
+        <v>1.041888666666667</v>
       </c>
       <c r="N26">
-        <v>1.10447383610449</v>
+        <v>3.125666</v>
       </c>
       <c r="O26">
-        <v>0.03199705911018118</v>
+        <v>0.02821583673558112</v>
       </c>
       <c r="P26">
-        <v>0.03199705911018118</v>
+        <v>0.02821583673558112</v>
       </c>
       <c r="Q26">
-        <v>214.4440806852398</v>
+        <v>206.9172249138791</v>
       </c>
       <c r="R26">
-        <v>214.4440806852398</v>
+        <v>1862.255024224912</v>
       </c>
       <c r="S26">
-        <v>0.009517088725786478</v>
+        <v>0.007910325330097339</v>
       </c>
       <c r="T26">
-        <v>0.009517088725786478</v>
+        <v>0.007910325330097339</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>42.1054306722281</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H27">
-        <v>42.1054306722281</v>
+        <v>595.794632</v>
       </c>
       <c r="I27">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J27">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>0.533870378450031</v>
+        <v>0.06924166666666666</v>
       </c>
       <c r="N27">
-        <v>0.533870378450031</v>
+        <v>0.207725</v>
       </c>
       <c r="O27">
-        <v>0.01546644338510555</v>
+        <v>0.001875163464649962</v>
       </c>
       <c r="P27">
-        <v>0.01546644338510555</v>
+        <v>0.001875163464649962</v>
       </c>
       <c r="Q27">
-        <v>22.47884220778396</v>
+        <v>13.75127110357778</v>
       </c>
       <c r="R27">
-        <v>22.47884220778396</v>
+        <v>123.7614399322</v>
       </c>
       <c r="S27">
-        <v>0.0009976173511566594</v>
+        <v>0.0005257031074959608</v>
       </c>
       <c r="T27">
-        <v>0.0009976173511566594</v>
+        <v>0.0005257031074959607</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>42.1054306722281</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H28">
-        <v>42.1054306722281</v>
+        <v>595.794632</v>
       </c>
       <c r="I28">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J28">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.82519197604245</v>
+        <v>3.238270333333334</v>
       </c>
       <c r="N28">
-        <v>2.82519197604245</v>
+        <v>9.714811000000001</v>
       </c>
       <c r="O28">
-        <v>0.08184696794074864</v>
+        <v>0.08769699676581809</v>
       </c>
       <c r="P28">
-        <v>0.08184696794074864</v>
+        <v>0.08769699676581807</v>
       </c>
       <c r="Q28">
-        <v>118.9559248829905</v>
+        <v>643.1146938549502</v>
       </c>
       <c r="R28">
-        <v>118.9559248829905</v>
+        <v>5788.032244694552</v>
       </c>
       <c r="S28">
-        <v>0.00527929746510991</v>
+        <v>0.02458590122246211</v>
       </c>
       <c r="T28">
-        <v>0.00527929746510991</v>
+        <v>0.02458590122246211</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>42.1054306722281</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H29">
-        <v>42.1054306722281</v>
+        <v>595.794632</v>
       </c>
       <c r="I29">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J29">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.27818275064968</v>
+        <v>4.564199666666667</v>
       </c>
       <c r="N29">
-        <v>4.27818275064968</v>
+        <v>13.692599</v>
       </c>
       <c r="O29">
-        <v>0.1239407054127308</v>
+        <v>0.1236050614076428</v>
       </c>
       <c r="P29">
-        <v>0.1239407054127308</v>
+        <v>0.1236050614076428</v>
       </c>
       <c r="Q29">
-        <v>180.1347272106023</v>
+        <v>906.4418869253965</v>
       </c>
       <c r="R29">
-        <v>180.1347272106023</v>
+        <v>8157.976982328569</v>
       </c>
       <c r="S29">
-        <v>0.007994429951064832</v>
+        <v>0.03465274687204759</v>
       </c>
       <c r="T29">
-        <v>0.007994429951064832</v>
+        <v>0.03465274687204759</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>42.1054306722281</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H30">
-        <v>42.1054306722281</v>
+        <v>595.794632</v>
       </c>
       <c r="I30">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J30">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.7762607362374</v>
+        <v>26.791856</v>
       </c>
       <c r="N30">
-        <v>25.7762607362374</v>
+        <v>80.375568</v>
       </c>
       <c r="O30">
-        <v>0.7467488241512339</v>
+        <v>0.7255618176150613</v>
       </c>
       <c r="P30">
-        <v>0.7467488241512339</v>
+        <v>0.7255618176150612</v>
       </c>
       <c r="Q30">
-        <v>1085.320559418919</v>
+        <v>5320.814662038997</v>
       </c>
       <c r="R30">
-        <v>1085.320559418919</v>
+        <v>47887.33195835097</v>
       </c>
       <c r="S30">
-        <v>0.04816683224318543</v>
+        <v>0.2034116541790969</v>
       </c>
       <c r="T30">
-        <v>0.04816683224318543</v>
+        <v>0.2034116541790969</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>42.1054306722281</v>
+        <v>198.5982106666667</v>
       </c>
       <c r="H31">
-        <v>42.1054306722281</v>
+        <v>595.794632</v>
       </c>
       <c r="I31">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="J31">
-        <v>0.06450205301351841</v>
+        <v>0.2803505493821544</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.10447383610449</v>
+        <v>1.220213333333333</v>
       </c>
       <c r="N31">
-        <v>1.10447383610449</v>
+        <v>3.66064</v>
       </c>
       <c r="O31">
-        <v>0.03199705911018118</v>
+        <v>0.03304512401124678</v>
       </c>
       <c r="P31">
-        <v>0.03199705911018118</v>
+        <v>0.03304512401124677</v>
       </c>
       <c r="Q31">
-        <v>46.50434653538743</v>
+        <v>242.3321846316089</v>
       </c>
       <c r="R31">
-        <v>46.50434653538743</v>
+        <v>2180.98966168448</v>
       </c>
       <c r="S31">
-        <v>0.002063876003001589</v>
+        <v>0.009264218670954455</v>
       </c>
       <c r="T31">
-        <v>0.002063876003001589</v>
+        <v>0.009264218670954453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H32">
+        <v>136.651993</v>
+      </c>
+      <c r="I32">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J32">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.041888666666667</v>
+      </c>
+      <c r="N32">
+        <v>3.125666</v>
+      </c>
+      <c r="O32">
+        <v>0.02821583673558112</v>
+      </c>
+      <c r="P32">
+        <v>0.02821583673558112</v>
+      </c>
+      <c r="Q32">
+        <v>47.45872092803756</v>
+      </c>
+      <c r="R32">
+        <v>427.128488352338</v>
+      </c>
+      <c r="S32">
+        <v>0.001814319336862009</v>
+      </c>
+      <c r="T32">
+        <v>0.001814319336862009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H33">
+        <v>136.651993</v>
+      </c>
+      <c r="I33">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J33">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.06924166666666666</v>
+      </c>
+      <c r="N33">
+        <v>0.207725</v>
+      </c>
+      <c r="O33">
+        <v>0.001875163464649962</v>
+      </c>
+      <c r="P33">
+        <v>0.001875163464649962</v>
+      </c>
+      <c r="Q33">
+        <v>3.154003916213889</v>
+      </c>
+      <c r="R33">
+        <v>28.386035245925</v>
+      </c>
+      <c r="S33">
+        <v>0.000120575737858639</v>
+      </c>
+      <c r="T33">
+        <v>0.000120575737858639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H34">
+        <v>136.651993</v>
+      </c>
+      <c r="I34">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J34">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3.238270333333334</v>
+      </c>
+      <c r="N34">
+        <v>9.714811000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.08769699676581809</v>
+      </c>
+      <c r="P34">
+        <v>0.08769699676581807</v>
+      </c>
+      <c r="Q34">
+        <v>147.5053649742582</v>
+      </c>
+      <c r="R34">
+        <v>1327.548284768323</v>
+      </c>
+      <c r="S34">
+        <v>0.00563904443125393</v>
+      </c>
+      <c r="T34">
+        <v>0.005639044431253929</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H35">
+        <v>136.651993</v>
+      </c>
+      <c r="I35">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J35">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>4.564199666666667</v>
+      </c>
+      <c r="N35">
+        <v>13.692599</v>
+      </c>
+      <c r="O35">
+        <v>0.1236050614076428</v>
+      </c>
+      <c r="P35">
+        <v>0.1236050614076428</v>
+      </c>
+      <c r="Q35">
+        <v>207.9023269666453</v>
+      </c>
+      <c r="R35">
+        <v>1871.120942699807</v>
+      </c>
+      <c r="S35">
+        <v>0.007947985209423336</v>
+      </c>
+      <c r="T35">
+        <v>0.007947985209423336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H36">
+        <v>136.651993</v>
+      </c>
+      <c r="I36">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J36">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>26.791856</v>
+      </c>
+      <c r="N36">
+        <v>80.375568</v>
+      </c>
+      <c r="O36">
+        <v>0.7255618176150613</v>
+      </c>
+      <c r="P36">
+        <v>0.7255618176150612</v>
+      </c>
+      <c r="Q36">
+        <v>1220.386839523003</v>
+      </c>
+      <c r="R36">
+        <v>10983.48155570703</v>
+      </c>
+      <c r="S36">
+        <v>0.04665468006935715</v>
+      </c>
+      <c r="T36">
+        <v>0.04665468006935714</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>45.55066433333334</v>
+      </c>
+      <c r="H37">
+        <v>136.651993</v>
+      </c>
+      <c r="I37">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="J37">
+        <v>0.06430145431675577</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.220213333333333</v>
+      </c>
+      <c r="N37">
+        <v>3.66064</v>
+      </c>
+      <c r="O37">
+        <v>0.03304512401124678</v>
+      </c>
+      <c r="P37">
+        <v>0.03304512401124677</v>
+      </c>
+      <c r="Q37">
+        <v>55.58152796172445</v>
+      </c>
+      <c r="R37">
+        <v>500.23375165552</v>
+      </c>
+      <c r="S37">
+        <v>0.002124849532000714</v>
+      </c>
+      <c r="T37">
+        <v>0.002124849532000713</v>
       </c>
     </row>
   </sheetData>
